--- a/public/AIT지원자 정보 엑셀파일 양식.xlsx
+++ b/public/AIT지원자 정보 엑셀파일 양식.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED5F62F-7A3B-4D1B-AA5A-A34278BD88E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91115CD6-A147-413A-8640-A67F24E9C1EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7848" xr2:uid="{F90ED37B-B407-4C1D-BE33-8CD4C459507E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,38 +52,6 @@
   </si>
   <si>
     <t>자소서를 입력해 주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤영인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3ylsjlsj@gmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저는 대학교에서 컴퓨터 공학을 전공하며 탄탄한 기초 지식을 쌓아왔습니다. 학부 시절, 알고리즘, 데이터 구조, 네트워크, 데이터베이스 등 다양한 과목을 통해 컴퓨터 과학의 기본 원리를 이해하고, 이를 실제 프로젝트에 적용해보는 경험을 했습니다. 특히 백엔드 개발에 깊은 흥미를 느껴 관련 프로젝트와 인턴십 경험을 통해 실무 역량을 키워왔습니다.
-학부 과정 중 수행한 주요 프로젝트로는 ‘온라인 도서관 시스템’이 있습니다. 이 프로젝트에서 저는 주로 서버 측 개발을 담당했으며, Spring Boot를 사용해 RESTful API를 설계하고 구현했습니다. 또한, MySQL을 활용하여 데이터베이스를 설계하고 최적화하는 작업도 진행했습니다. 이 과정에서 효율적인 데이터 처리를 위해 인덱싱, 쿼리 최적화 등의 기법을 익혔습니다. 이러한 경험은 실제 업무에서도 효율적이고 확장 가능한 시스템을 설계하는 데 큰 도움이 될 것이라 확신합니다.
-또한, kt에서의 인턴십을 통해 실무 환경에서의 백엔드 개발 경험을 쌓았습니다. 여기서 저는 기존 시스템의 성능을 분석하고, 병목 지점을 개선하기 위한 리팩토링 작업을 수행했습니다. 이를 통해 코드 최적화, 성능 개선, 그리고 테스트 자동화의 중요성을 깊이 인식하게 되었습니다. 더불어, 팀원들과의 협업을 통해 커뮤니케이션 능력과 문제 해결 능력을 키울 수 있었습니다.
-제가 생각하는 백엔드 개발자의 가장 중요한 덕목은 지속적인 학습과 성장입니다. 기술은 빠르게 변화하고, 이에 맞춰 스스로를 발전시키는 것이 중요하다고 생각합니다. 따라서 새로운 기술과 트렌드를 배우는 데 게을리하지 않으며, 현재는 Docker와 Kubernetes를 활용한 컨테이너 오케스트레이션, 그리고 클라우드 환경에서의 백엔드 시스템 운영에 대해 공부하고 있습니다. 이를 통해 더욱 안정적이고 유연한 서비스를 제공할 수 있는 능력을 갖추고자 합니다.
-kt의 혁신적인 기술과 도전적인 프로젝트들을 보며 큰 영감을 받았습니다. 귀사의 개발 철학과 비전을 깊이 공감하며, 함께 성장하고 싶다는 열망을 품게 되었습니다. 제가 가진 기술적 역량과 열정, 그리고 끊임없이 학습하고자 하는 자세를 바탕으로 귀사의 발전에 기여하고 싶습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dlalwl723@naver.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001-0723</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 자소서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C86854FA-5CD4-4B3D-9E50-966DA36413A4}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -513,42 +481,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>36093</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{4C1D39F9-615A-41B9-9BF0-B1ACDD6E88FE}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{FC48073A-D05E-4DEC-A7C1-E3DAFCDF8B84}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{E946AFBE-8BE5-472B-B9B8-33E07AB6B887}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>